--- a/Excelsheets/LinkedinLoginTestCases.xlsx
+++ b/Excelsheets/LinkedinLoginTestCases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Sunny\SunnyLinkedInProject\linkedinLogin\Excelsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC4B8C8-1C6B-4687-BF44-D1DDFCA4F173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F486D2F0-70BF-494C-A3D7-D6D3DB2ABB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D45CE4D-1631-4A44-91BC-F6AD5BAB524B}"/>
   </bookViews>
@@ -204,9 +204,6 @@
     <t>Verify successful login</t>
   </si>
   <si>
-    <t>//*[@class='t-16 t-black t-bold']</t>
-  </si>
-  <si>
     <t>Inturi Chaitanya Sai</t>
   </si>
   <si>
@@ -241,6 +238,9 @@
   </si>
   <si>
     <t>Parameter1</t>
+  </si>
+  <si>
+    <t>//*[@class='profile-card-name text-heading-large']</t>
   </si>
 </sst>
 </file>
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E05B3F-C21E-4F65-B1B3-1202C50AE3B1}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,10 +729,10 @@
         <v>44</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -865,7 +865,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>3</v>
       </c>
@@ -879,10 +879,10 @@
         <v>17</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -947,7 +947,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>11</v>
@@ -956,7 +956,7 @@
         <v>52</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -967,7 +967,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>11</v>
@@ -976,7 +976,7 @@
         <v>54</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1149,13 +1149,13 @@
         <v>36</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -1230,7 +1230,7 @@
         <v>54</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1241,13 +1241,13 @@
         <v>41</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29" s="8"/>
     </row>
